--- a/src/main/resources/Projektfortschrittsplanung.xlsx
+++ b/src/main/resources/Projektfortschrittsplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20715" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20715" windowHeight="12600" tabRatio="253"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Codename des Softwareprojekts:</t>
   </si>
@@ -69,9 +69,6 @@
     <t>2D Array per ImageWriter in ein Bild Objekt schreiben</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parameter für Bildqualität </t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Bestimmung der Anzahl der CPU Kerne</t>
+  </si>
+  <si>
+    <t>Idir</t>
+  </si>
+  <si>
+    <t>GUI (SWING/JavaFX)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +489,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -491,7 +497,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2276474</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>162485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -500,8 +506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152399" y="5610225"/>
-          <a:ext cx="2124075" cy="828674"/>
+          <a:off x="56029" y="5265645"/>
+          <a:ext cx="2220445" cy="847164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -844,19 +850,20 @@
     <col min="4" max="4" width="23.73046875" customWidth="1"/>
     <col min="5" max="5" width="33.73046875" customWidth="1"/>
     <col min="7" max="7" width="19.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.65" thickBot="1">
+    <row r="2" spans="1:8" ht="14.65" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -878,8 +885,9 @@
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -892,14 +900,16 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="18">
         <f>D4/C4*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -919,12 +929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -935,12 +945,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -948,19 +958,21 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
@@ -968,19 +980,21 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -991,12 +1005,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>20</v>
@@ -1011,12 +1025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>20</v>
@@ -1031,12 +1045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>30</v>
@@ -1051,12 +1065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>30</v>
@@ -1071,12 +1085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -1089,12 +1103,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1109,12 +1123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
